--- a/Internet Speed Master.xlsx
+++ b/Internet Speed Master.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unique IP States" sheetId="4" r:id="rId1"/>
     <sheet name="Ave. Connection Speeds US" sheetId="1" r:id="rId2"/>
-    <sheet name="Ave Conn Speed By State" sheetId="11" r:id="rId3"/>
-    <sheet name="Ave. Peak Speed US" sheetId="10" r:id="rId4"/>
-    <sheet name="15mbps Broadband States" sheetId="5" r:id="rId5"/>
-    <sheet name="Unique IP Countries" sheetId="2" r:id="rId6"/>
-    <sheet name="Ave. Connection Speeds Counties" sheetId="3" r:id="rId7"/>
-    <sheet name="15mbps Broadband Counties" sheetId="6" r:id="rId8"/>
-    <sheet name="Unique IP - All Counties" sheetId="7" r:id="rId9"/>
-    <sheet name="Ave Conn. Speed - All Countries" sheetId="8" r:id="rId10"/>
-    <sheet name="15mbps - All Countries" sheetId="9" r:id="rId11"/>
+    <sheet name="scratchpaper - states" sheetId="12" r:id="rId3"/>
+    <sheet name="Ave Conn Speed By State" sheetId="11" r:id="rId4"/>
+    <sheet name="Ave. Peak Speed US" sheetId="10" r:id="rId5"/>
+    <sheet name="15mbps Broadband States" sheetId="5" r:id="rId6"/>
+    <sheet name="Unique IP Countries" sheetId="2" r:id="rId7"/>
+    <sheet name="Ave. Connection Speeds Counties" sheetId="3" r:id="rId8"/>
+    <sheet name="15mbps Broadband Counties" sheetId="6" r:id="rId9"/>
+    <sheet name="Unique IP - All Counties" sheetId="7" r:id="rId10"/>
+    <sheet name="Ave Conn. Speed - All Countries" sheetId="8" r:id="rId11"/>
+    <sheet name="15mbps - All Countries" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="418">
   <si>
     <t>Quarter</t>
   </si>
@@ -1247,6 +1248,42 @@
   </si>
   <si>
     <t>finland</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Idaho</t>
   </si>
 </sst>
 </file>
@@ -1791,6 +1828,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:B55" totalsRowShown="0">
+  <autoFilter ref="A4:B55"/>
+  <sortState ref="A5:B55">
+    <sortCondition descending="1" ref="B4:B55"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="State"/>
+    <tableColumn id="2" name="Speed"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B241" totalsRowShown="0">
   <autoFilter ref="A1:B241"/>
   <sortState ref="A2:B241">
@@ -2103,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8441,9 +8492,1952 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B241"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57">
+        <v>8687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58">
+        <v>9376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60">
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62">
+        <v>10497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63">
+        <v>10599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64">
+        <v>10617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65">
+        <v>10680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66">
+        <v>10897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67">
+        <v>12086</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68">
+        <v>12408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69">
+        <v>12438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71">
+        <v>13805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72">
+        <v>14030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73">
+        <v>14505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74">
+        <v>14653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75">
+        <v>14665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76">
+        <v>14925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77">
+        <v>15045</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78">
+        <v>15352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79">
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80">
+        <v>16229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81">
+        <v>16775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82">
+        <v>16781</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83">
+        <v>19131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84">
+        <v>19167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85">
+        <v>19555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86">
+        <v>20690</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87">
+        <v>20861</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88">
+        <v>21123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90">
+        <v>22728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91">
+        <v>23989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93">
+        <v>25141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94">
+        <v>27665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95">
+        <v>27953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96">
+        <v>28076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98">
+        <v>28467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99">
+        <v>29449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100">
+        <v>30781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101">
+        <v>31363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>33371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103">
+        <v>34386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104">
+        <v>36842</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105">
+        <v>37456</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106">
+        <v>38087</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107">
+        <v>41419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109">
+        <v>48577</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110">
+        <v>49087</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111">
+        <v>51563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112">
+        <v>51616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113">
+        <v>53117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114">
+        <v>56677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115">
+        <v>58939</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116">
+        <v>60570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117">
+        <v>73349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118">
+        <v>80351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119">
+        <v>85420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120">
+        <v>86457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121">
+        <v>87840</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122">
+        <v>89705</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123">
+        <v>100378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124">
+        <v>104017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125">
+        <v>113777</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126">
+        <v>114863</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127">
+        <v>122132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128">
+        <v>124915</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129">
+        <v>125795</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130">
+        <v>126534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131">
+        <v>134094</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132">
+        <v>134210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133">
+        <v>147884</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134">
+        <v>152051</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135">
+        <v>156892</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>237</v>
+      </c>
+      <c r="B136">
+        <v>160076</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>238</v>
+      </c>
+      <c r="B137">
+        <v>166943</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138">
+        <v>170593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139">
+        <v>175628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>241</v>
+      </c>
+      <c r="B140">
+        <v>178495</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141">
+        <v>179674</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142">
+        <v>181620</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143">
+        <v>185509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144">
+        <v>188139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145">
+        <v>194646</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146">
+        <v>200240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147">
+        <v>206156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148">
+        <v>208790</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149">
+        <v>209207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>251</v>
+      </c>
+      <c r="B150">
+        <v>210079</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151">
+        <v>220795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152">
+        <v>248931</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153">
+        <v>250932</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>255</v>
+      </c>
+      <c r="B154">
+        <v>289734</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155">
+        <v>291990</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156">
+        <v>295231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157">
+        <v>297303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158">
+        <v>319679</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159">
+        <v>327042</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160">
+        <v>339971</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161">
+        <v>368293</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162">
+        <v>377561</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>264</v>
+      </c>
+      <c r="B163">
+        <v>444657</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>265</v>
+      </c>
+      <c r="B164">
+        <v>463691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>266</v>
+      </c>
+      <c r="B165">
+        <v>492392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166">
+        <v>497080</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167">
+        <v>497687</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>269</v>
+      </c>
+      <c r="B168">
+        <v>500853</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169">
+        <v>508938</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170">
+        <v>531033</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>272</v>
+      </c>
+      <c r="B171">
+        <v>539972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>273</v>
+      </c>
+      <c r="B172">
+        <v>554074</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173">
+        <v>661024</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>275</v>
+      </c>
+      <c r="B174">
+        <v>787799</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>276</v>
+      </c>
+      <c r="B175">
+        <v>869230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176">
+        <v>878525</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177">
+        <v>898295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>279</v>
+      </c>
+      <c r="B178">
+        <v>906609</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>280</v>
+      </c>
+      <c r="B179">
+        <v>959629</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180">
+        <v>1032242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181">
+        <v>1236913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182">
+        <v>1286714</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>284</v>
+      </c>
+      <c r="B183">
+        <v>1302521</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184">
+        <v>1350900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>286</v>
+      </c>
+      <c r="B185">
+        <v>1353580</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186">
+        <v>1522517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>288</v>
+      </c>
+      <c r="B187">
+        <v>1536948</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>289</v>
+      </c>
+      <c r="B188">
+        <v>1595352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189">
+        <v>1663376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>291</v>
+      </c>
+      <c r="B190">
+        <v>1704176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>292</v>
+      </c>
+      <c r="B191">
+        <v>1705695</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>293</v>
+      </c>
+      <c r="B192">
+        <v>1720644</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>294</v>
+      </c>
+      <c r="B193">
+        <v>1778178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>295</v>
+      </c>
+      <c r="B194">
+        <v>2024533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195">
+        <v>2051866</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>297</v>
+      </c>
+      <c r="B196">
+        <v>2332434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>298</v>
+      </c>
+      <c r="B197">
+        <v>2363587</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>299</v>
+      </c>
+      <c r="B198">
+        <v>2456014</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199">
+        <v>2571911</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>301</v>
+      </c>
+      <c r="B200">
+        <v>2593521</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201">
+        <v>2624652</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>303</v>
+      </c>
+      <c r="B202">
+        <v>2663340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203">
+        <v>2822892</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>305</v>
+      </c>
+      <c r="B204">
+        <v>2826875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>306</v>
+      </c>
+      <c r="B205">
+        <v>2921934</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206">
+        <v>3132077</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207">
+        <v>3133476</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>309</v>
+      </c>
+      <c r="B208">
+        <v>3510242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>310</v>
+      </c>
+      <c r="B209">
+        <v>3662187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>311</v>
+      </c>
+      <c r="B210">
+        <v>3664561</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>312</v>
+      </c>
+      <c r="B211">
+        <v>3732705</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>313</v>
+      </c>
+      <c r="B212">
+        <v>3793061</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>314</v>
+      </c>
+      <c r="B213">
+        <v>3855605</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>315</v>
+      </c>
+      <c r="B214">
+        <v>4274668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215">
+        <v>4372220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>317</v>
+      </c>
+      <c r="B216">
+        <v>4504838</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>318</v>
+      </c>
+      <c r="B217">
+        <v>5156332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>319</v>
+      </c>
+      <c r="B218">
+        <v>5185338</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>320</v>
+      </c>
+      <c r="B219">
+        <v>5500163</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>321</v>
+      </c>
+      <c r="B220">
+        <v>6362131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>322</v>
+      </c>
+      <c r="B221">
+        <v>6878918</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>323</v>
+      </c>
+      <c r="B222">
+        <v>7115844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>324</v>
+      </c>
+      <c r="B223">
+        <v>8079762</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>325</v>
+      </c>
+      <c r="B224">
+        <v>8203135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>326</v>
+      </c>
+      <c r="B225">
+        <v>8616202</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>327</v>
+      </c>
+      <c r="B226">
+        <v>9378846</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>328</v>
+      </c>
+      <c r="B227">
+        <v>9382252</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>329</v>
+      </c>
+      <c r="B228">
+        <v>9859878</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>330</v>
+      </c>
+      <c r="B229">
+        <v>13309655</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>331</v>
+      </c>
+      <c r="B230">
+        <v>13315518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>332</v>
+      </c>
+      <c r="B231">
+        <v>14575619</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>333</v>
+      </c>
+      <c r="B232">
+        <v>15582991</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>334</v>
+      </c>
+      <c r="B233">
+        <v>19163474</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>335</v>
+      </c>
+      <c r="B234">
+        <v>25814048</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>336</v>
+      </c>
+      <c r="B235">
+        <v>26855780</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>337</v>
+      </c>
+      <c r="B236">
+        <v>27493519</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>338</v>
+      </c>
+      <c r="B237">
+        <v>29887339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>339</v>
+      </c>
+      <c r="B238">
+        <v>38794861</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239">
+        <v>43689566</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>341</v>
+      </c>
+      <c r="B240">
+        <v>98862937</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>342</v>
+      </c>
+      <c r="B241">
+        <v>128949703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10403,7 +12397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B241"/>
   <sheetViews>
@@ -12350,9 +14344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18682,6 +20674,969 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16056.160599999999</v>
+      </c>
+      <c r="B2">
+        <v>14309.966399999999</v>
+      </c>
+      <c r="C2">
+        <v>18531.9385</v>
+      </c>
+      <c r="D2">
+        <v>12923.6255</v>
+      </c>
+      <c r="E2">
+        <v>20105.833999999999</v>
+      </c>
+      <c r="F2">
+        <v>15408.1841</v>
+      </c>
+      <c r="G2">
+        <v>19542.564999999999</v>
+      </c>
+      <c r="H2">
+        <v>25161.511299999998</v>
+      </c>
+      <c r="I2">
+        <v>28069.609799999998</v>
+      </c>
+      <c r="J2">
+        <v>18185.869299999998</v>
+      </c>
+      <c r="K2">
+        <v>17937.045300000002</v>
+      </c>
+      <c r="L2">
+        <v>15618.363799999999</v>
+      </c>
+      <c r="M2">
+        <v>11980.8688</v>
+      </c>
+      <c r="N2">
+        <v>18580.736199999999</v>
+      </c>
+      <c r="O2">
+        <v>18130.766500000002</v>
+      </c>
+      <c r="P2">
+        <v>15257.274600000001</v>
+      </c>
+      <c r="Q2">
+        <v>16450.619200000001</v>
+      </c>
+      <c r="R2">
+        <v>13769.153700000001</v>
+      </c>
+      <c r="S2">
+        <v>14944.642599999999</v>
+      </c>
+      <c r="T2">
+        <v>14829.935799999999</v>
+      </c>
+      <c r="U2">
+        <v>22276.2222</v>
+      </c>
+      <c r="V2">
+        <v>23784.054100000001</v>
+      </c>
+      <c r="W2">
+        <v>19190.5471</v>
+      </c>
+      <c r="X2">
+        <v>17609.244600000002</v>
+      </c>
+      <c r="Y2">
+        <v>12860.2696</v>
+      </c>
+      <c r="Z2">
+        <v>16693.639299999999</v>
+      </c>
+      <c r="AA2">
+        <v>15469.3143</v>
+      </c>
+      <c r="AB2">
+        <v>16098.0324</v>
+      </c>
+      <c r="AC2">
+        <v>18699.464800000002</v>
+      </c>
+      <c r="AD2">
+        <v>19380.824100000002</v>
+      </c>
+      <c r="AE2">
+        <v>22167.0622</v>
+      </c>
+      <c r="AF2">
+        <v>12436.5213</v>
+      </c>
+      <c r="AG2">
+        <v>22048.496599999999</v>
+      </c>
+      <c r="AH2">
+        <v>17468.466700000001</v>
+      </c>
+      <c r="AI2">
+        <v>17955.5779</v>
+      </c>
+      <c r="AJ2">
+        <v>15718.6396</v>
+      </c>
+      <c r="AK2">
+        <v>16020.8464</v>
+      </c>
+      <c r="AL2">
+        <v>18791.2729</v>
+      </c>
+      <c r="AM2">
+        <v>20774.1188</v>
+      </c>
+      <c r="AN2">
+        <v>23668.1836</v>
+      </c>
+      <c r="AO2">
+        <v>15848.9825</v>
+      </c>
+      <c r="AP2">
+        <v>17075.550800000001</v>
+      </c>
+      <c r="AQ2">
+        <v>17040.455900000001</v>
+      </c>
+      <c r="AR2">
+        <v>17872.940200000001</v>
+      </c>
+      <c r="AS2">
+        <v>20650.469799999999</v>
+      </c>
+      <c r="AT2">
+        <v>17913.7366</v>
+      </c>
+      <c r="AU2">
+        <v>21126.258699999998</v>
+      </c>
+      <c r="AV2">
+        <v>20005.207999999999</v>
+      </c>
+      <c r="AW2">
+        <v>13928.2204</v>
+      </c>
+      <c r="AX2">
+        <v>16880.879300000001</v>
+      </c>
+      <c r="AY2">
+        <v>15053.042100000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>28069.609799999998</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>28069.609799999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE("""",G5,"""")</f>
+        <v>"District of Columbia"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>25161.511299999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>25161.511299999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I14" si="0">CONCATENATE("""",G6,"""")</f>
+        <v>"Delaware"</v>
+      </c>
+      <c r="J6" t="str">
+        <f>CONCATENATE(I5, ", ",I6)</f>
+        <v>"District of Columbia", "Delaware"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>23784.054100000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>23784.054100000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>410</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Massachusetts"</v>
+      </c>
+      <c r="J7" t="str">
+        <f>CONCATENATE(J6, ", ",I7)</f>
+        <v>"District of Columbia", "Delaware", "Massachusetts"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>23668.1836</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>23668.1836</v>
+      </c>
+      <c r="G8" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rhode Island"</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8:J14" si="1">CONCATENATE(J7, ", ",I8)</f>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>22276.2222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>22276.2222</v>
+      </c>
+      <c r="G9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Maryland"</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>22167.0622</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>13769.153700000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kentucky"</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland", "Kentucky"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>22048.496599999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>12923.6255</v>
+      </c>
+      <c r="G11" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Arkansas"</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland", "Kentucky", "Arkansas"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>21126.258699999998</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>12860.2696</v>
+      </c>
+      <c r="G12" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mississippi"</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland", "Kentucky", "Arkansas", "Mississippi"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>20774.1188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>12436.5213</v>
+      </c>
+      <c r="G13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"New Mexico"</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland", "Kentucky", "Arkansas", "Mississippi", "New Mexico"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>20650.469799999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>11980.8688</v>
+      </c>
+      <c r="G14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Idaho"</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>"District of Columbia", "Delaware", "Massachusetts", "Rhode Island", "Maryland", "Kentucky", "Arkansas", "Mississippi", "New Mexico", "Idaho"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>20105.833999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>20005.207999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>19542.564999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>19380.824100000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>19190.5471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>18791.2729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>18699.464800000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>18580.736199999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>18531.9385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>18185.869299999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>18130.766500000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>17955.5779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>17937.045300000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>17913.7366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>17872.940200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>17609.244600000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>17468.466700000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>17075.550800000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>17040.455900000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>16880.879300000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>16693.639299999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>16450.619200000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>16098.0324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>16056.160599999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>16020.8464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>15848.9825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>15718.6396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>15618.363799999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>15469.3143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>15408.1841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>15257.274600000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>15053.042100000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>14944.642599999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>14829.935799999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>14309.966399999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>13928.2204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>13769.153700000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>12923.6255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>12860.2696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>12436.5213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>11980.8688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -19112,7 +22067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
@@ -25450,7 +28405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
@@ -31794,7 +34749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
@@ -33689,12 +36644,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="L1:O1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35584,7 +38539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
@@ -37477,1947 +40432,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B241"/>
-  <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection sqref="A1:B241"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42">
-        <v>3582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43">
-        <v>3633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46">
-        <v>4092</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48">
-        <v>4755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49">
-        <v>4785</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50">
-        <v>5190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51">
-        <v>5384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52">
-        <v>5580</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55">
-        <v>7952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56">
-        <v>8088</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57">
-        <v>8687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B58">
-        <v>9376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59">
-        <v>9416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60">
-        <v>9633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61">
-        <v>9816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62">
-        <v>10497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63">
-        <v>10599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64">
-        <v>10617</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65">
-        <v>10680</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66">
-        <v>10897</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67">
-        <v>12086</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68">
-        <v>12408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69">
-        <v>12438</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70">
-        <v>12496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71">
-        <v>13805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B72">
-        <v>14030</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73">
-        <v>14505</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74">
-        <v>14653</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75">
-        <v>14665</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76">
-        <v>14925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77">
-        <v>15045</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78">
-        <v>15352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79">
-        <v>15425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80">
-        <v>16229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81">
-        <v>16775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82">
-        <v>16781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83">
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84">
-        <v>19167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85">
-        <v>19555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86">
-        <v>20690</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87">
-        <v>20861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88">
-        <v>21123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89">
-        <v>22700</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90">
-        <v>22728</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>192</v>
-      </c>
-      <c r="B91">
-        <v>23989</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92">
-        <v>24100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93">
-        <v>25141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94">
-        <v>27665</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95">
-        <v>27953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96">
-        <v>28076</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97">
-        <v>28333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98">
-        <v>28467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99">
-        <v>29449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100">
-        <v>30781</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101">
-        <v>31363</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102">
-        <v>33371</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103">
-        <v>34386</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104">
-        <v>36842</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105">
-        <v>37456</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106">
-        <v>38087</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107">
-        <v>41419</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>209</v>
-      </c>
-      <c r="B108">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>210</v>
-      </c>
-      <c r="B109">
-        <v>48577</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>211</v>
-      </c>
-      <c r="B110">
-        <v>49087</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111">
-        <v>51563</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>213</v>
-      </c>
-      <c r="B112">
-        <v>51616</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>214</v>
-      </c>
-      <c r="B113">
-        <v>53117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114">
-        <v>56677</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>216</v>
-      </c>
-      <c r="B115">
-        <v>58939</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>217</v>
-      </c>
-      <c r="B116">
-        <v>60570</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>218</v>
-      </c>
-      <c r="B117">
-        <v>73349</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118">
-        <v>80351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119">
-        <v>85420</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>221</v>
-      </c>
-      <c r="B120">
-        <v>86457</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>222</v>
-      </c>
-      <c r="B121">
-        <v>87840</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122">
-        <v>89705</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123">
-        <v>100378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>225</v>
-      </c>
-      <c r="B124">
-        <v>104017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125">
-        <v>113777</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126">
-        <v>114863</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>228</v>
-      </c>
-      <c r="B127">
-        <v>122132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>229</v>
-      </c>
-      <c r="B128">
-        <v>124915</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>230</v>
-      </c>
-      <c r="B129">
-        <v>125795</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130">
-        <v>126534</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>232</v>
-      </c>
-      <c r="B131">
-        <v>134094</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>233</v>
-      </c>
-      <c r="B132">
-        <v>134210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133">
-        <v>147884</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134">
-        <v>152051</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135">
-        <v>156892</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>237</v>
-      </c>
-      <c r="B136">
-        <v>160076</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>238</v>
-      </c>
-      <c r="B137">
-        <v>166943</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>239</v>
-      </c>
-      <c r="B138">
-        <v>170593</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>240</v>
-      </c>
-      <c r="B139">
-        <v>175628</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>241</v>
-      </c>
-      <c r="B140">
-        <v>178495</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>242</v>
-      </c>
-      <c r="B141">
-        <v>179674</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>243</v>
-      </c>
-      <c r="B142">
-        <v>181620</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>244</v>
-      </c>
-      <c r="B143">
-        <v>185509</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>245</v>
-      </c>
-      <c r="B144">
-        <v>188139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>246</v>
-      </c>
-      <c r="B145">
-        <v>194646</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>247</v>
-      </c>
-      <c r="B146">
-        <v>200240</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>248</v>
-      </c>
-      <c r="B147">
-        <v>206156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>249</v>
-      </c>
-      <c r="B148">
-        <v>208790</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>250</v>
-      </c>
-      <c r="B149">
-        <v>209207</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>251</v>
-      </c>
-      <c r="B150">
-        <v>210079</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>252</v>
-      </c>
-      <c r="B151">
-        <v>220795</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>253</v>
-      </c>
-      <c r="B152">
-        <v>248931</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>254</v>
-      </c>
-      <c r="B153">
-        <v>250932</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>255</v>
-      </c>
-      <c r="B154">
-        <v>289734</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>256</v>
-      </c>
-      <c r="B155">
-        <v>291990</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>257</v>
-      </c>
-      <c r="B156">
-        <v>295231</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>258</v>
-      </c>
-      <c r="B157">
-        <v>297303</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>259</v>
-      </c>
-      <c r="B158">
-        <v>319679</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>260</v>
-      </c>
-      <c r="B159">
-        <v>327042</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>261</v>
-      </c>
-      <c r="B160">
-        <v>339971</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>262</v>
-      </c>
-      <c r="B161">
-        <v>368293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>263</v>
-      </c>
-      <c r="B162">
-        <v>377561</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>264</v>
-      </c>
-      <c r="B163">
-        <v>444657</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>265</v>
-      </c>
-      <c r="B164">
-        <v>463691</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>266</v>
-      </c>
-      <c r="B165">
-        <v>492392</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>267</v>
-      </c>
-      <c r="B166">
-        <v>497080</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>268</v>
-      </c>
-      <c r="B167">
-        <v>497687</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>269</v>
-      </c>
-      <c r="B168">
-        <v>500853</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>270</v>
-      </c>
-      <c r="B169">
-        <v>508938</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>271</v>
-      </c>
-      <c r="B170">
-        <v>531033</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171">
-        <v>539972</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>273</v>
-      </c>
-      <c r="B172">
-        <v>554074</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173">
-        <v>661024</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>275</v>
-      </c>
-      <c r="B174">
-        <v>787799</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>276</v>
-      </c>
-      <c r="B175">
-        <v>869230</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>277</v>
-      </c>
-      <c r="B176">
-        <v>878525</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>278</v>
-      </c>
-      <c r="B177">
-        <v>898295</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>279</v>
-      </c>
-      <c r="B178">
-        <v>906609</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>280</v>
-      </c>
-      <c r="B179">
-        <v>959629</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>281</v>
-      </c>
-      <c r="B180">
-        <v>1032242</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>282</v>
-      </c>
-      <c r="B181">
-        <v>1236913</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>283</v>
-      </c>
-      <c r="B182">
-        <v>1286714</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>284</v>
-      </c>
-      <c r="B183">
-        <v>1302521</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>285</v>
-      </c>
-      <c r="B184">
-        <v>1350900</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>286</v>
-      </c>
-      <c r="B185">
-        <v>1353580</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>287</v>
-      </c>
-      <c r="B186">
-        <v>1522517</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>288</v>
-      </c>
-      <c r="B187">
-        <v>1536948</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>289</v>
-      </c>
-      <c r="B188">
-        <v>1595352</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>290</v>
-      </c>
-      <c r="B189">
-        <v>1663376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>291</v>
-      </c>
-      <c r="B190">
-        <v>1704176</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>292</v>
-      </c>
-      <c r="B191">
-        <v>1705695</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>293</v>
-      </c>
-      <c r="B192">
-        <v>1720644</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>294</v>
-      </c>
-      <c r="B193">
-        <v>1778178</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>295</v>
-      </c>
-      <c r="B194">
-        <v>2024533</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>296</v>
-      </c>
-      <c r="B195">
-        <v>2051866</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>297</v>
-      </c>
-      <c r="B196">
-        <v>2332434</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>298</v>
-      </c>
-      <c r="B197">
-        <v>2363587</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>299</v>
-      </c>
-      <c r="B198">
-        <v>2456014</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>300</v>
-      </c>
-      <c r="B199">
-        <v>2571911</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>301</v>
-      </c>
-      <c r="B200">
-        <v>2593521</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>302</v>
-      </c>
-      <c r="B201">
-        <v>2624652</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>303</v>
-      </c>
-      <c r="B202">
-        <v>2663340</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>304</v>
-      </c>
-      <c r="B203">
-        <v>2822892</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>305</v>
-      </c>
-      <c r="B204">
-        <v>2826875</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>306</v>
-      </c>
-      <c r="B205">
-        <v>2921934</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>307</v>
-      </c>
-      <c r="B206">
-        <v>3132077</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>308</v>
-      </c>
-      <c r="B207">
-        <v>3133476</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>309</v>
-      </c>
-      <c r="B208">
-        <v>3510242</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>310</v>
-      </c>
-      <c r="B209">
-        <v>3662187</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>311</v>
-      </c>
-      <c r="B210">
-        <v>3664561</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>312</v>
-      </c>
-      <c r="B211">
-        <v>3732705</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>313</v>
-      </c>
-      <c r="B212">
-        <v>3793061</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>314</v>
-      </c>
-      <c r="B213">
-        <v>3855605</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>315</v>
-      </c>
-      <c r="B214">
-        <v>4274668</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>316</v>
-      </c>
-      <c r="B215">
-        <v>4372220</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>317</v>
-      </c>
-      <c r="B216">
-        <v>4504838</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>318</v>
-      </c>
-      <c r="B217">
-        <v>5156332</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>319</v>
-      </c>
-      <c r="B218">
-        <v>5185338</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>320</v>
-      </c>
-      <c r="B219">
-        <v>5500163</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>321</v>
-      </c>
-      <c r="B220">
-        <v>6362131</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>322</v>
-      </c>
-      <c r="B221">
-        <v>6878918</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>323</v>
-      </c>
-      <c r="B222">
-        <v>7115844</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>324</v>
-      </c>
-      <c r="B223">
-        <v>8079762</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>325</v>
-      </c>
-      <c r="B224">
-        <v>8203135</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>326</v>
-      </c>
-      <c r="B225">
-        <v>8616202</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>327</v>
-      </c>
-      <c r="B226">
-        <v>9378846</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>328</v>
-      </c>
-      <c r="B227">
-        <v>9382252</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>329</v>
-      </c>
-      <c r="B228">
-        <v>9859878</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>330</v>
-      </c>
-      <c r="B229">
-        <v>13309655</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>331</v>
-      </c>
-      <c r="B230">
-        <v>13315518</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>332</v>
-      </c>
-      <c r="B231">
-        <v>14575619</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>333</v>
-      </c>
-      <c r="B232">
-        <v>15582991</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>334</v>
-      </c>
-      <c r="B233">
-        <v>19163474</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>335</v>
-      </c>
-      <c r="B234">
-        <v>25814048</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>336</v>
-      </c>
-      <c r="B235">
-        <v>26855780</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>337</v>
-      </c>
-      <c r="B236">
-        <v>27493519</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>338</v>
-      </c>
-      <c r="B237">
-        <v>29887339</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>339</v>
-      </c>
-      <c r="B238">
-        <v>38794861</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>340</v>
-      </c>
-      <c r="B239">
-        <v>43689566</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>341</v>
-      </c>
-      <c r="B240">
-        <v>98862937</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>342</v>
-      </c>
-      <c r="B241">
-        <v>128949703</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>